--- a/test-input/learn.xlsx
+++ b/test-input/learn.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="5895"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15210" windowHeight="1965"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>UserID</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>plabani.17@gmail.com</t>
-  </si>
-  <si>
-    <t>Sahoo@2017</t>
   </si>
 </sst>
 </file>
@@ -363,7 +360,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -383,9 +380,7 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -393,7 +388,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
